--- a/Documents/Test cases/Version 1/Final-Project-Test-Cases-version-1.xlsx
+++ b/Documents/Test cases/Version 1/Final-Project-Test-Cases-version-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Seneca cpp\CPR101\group project\CPR101_Group_41_2024Final_Project\Documents\Test cases\Version 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262BA701-F7C2-41B1-9658-367C51B61602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D481322E-1627-46D1-93CC-654CDD108B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -774,7 +774,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="74">
   <si>
     <t>Comments</t>
   </si>
@@ -1060,12 +1060,41 @@
   <si>
     <t>To see if any special case are entered will it give any output</t>
   </si>
+  <si>
+    <t>one two three four</t>
+  </si>
+  <si>
+    <t>"Word #1 is 'one'"
+"Word #2 is 'two'"
+"Word #3 is 'three'"
+"Word #4 is 'four'"</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa bbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbb ccccccccccccccccccccccccccccccccccccccccccccccccc ddddddddddddddddddddddddddddddddddddddddddddddddd</t>
+  </si>
+  <si>
+    <t>"Word #1 is 'aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa'"
+"Word #2 is 'bbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbbb'"
+"Word #3 is 'ccccccccccccccccccccccccccccccccccccccccccccccccc'"
+"Word #4 is 'ddddddddddddddddddddddddddddddddddddddddddddddd'"</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>Word #1 is 
+'aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa
+aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa''</t>
+  </si>
+  <si>
+    <t>- typical case</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1179,6 +1208,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1522,7 +1556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1551,9 +1585,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1606,52 +1637,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -1661,6 +1647,58 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1952,8 +1990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8467BC1A-7E6C-461F-88DC-8200B861EB6B}">
   <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="71" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="71" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1968,66 +2006,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="20" t="str" cm="1">
+      <c r="B1" s="19" t="str" cm="1">
         <f t="array" aca="1" ref="B1" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,255)</f>
         <v>main</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="27" t="s">
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="D3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E3" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>21</v>
+      <c r="B4" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>22</v>
@@ -2035,10 +2073,10 @@
       <c r="D4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -2047,11 +2085,11 @@
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>21</v>
+      <c r="B5" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>23</v>
@@ -2059,10 +2097,10 @@
       <c r="D5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="16" t="s">
+      <c r="F5" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G5" s="3" t="s">
@@ -2071,35 +2109,35 @@
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="18" t="s">
+      <c r="B6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="22"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -2108,10 +2146,10 @@
       <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -2120,11 +2158,11 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>21</v>
+      <c r="B8" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>26</v>
@@ -2132,10 +2170,10 @@
       <c r="D8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2144,11 +2182,11 @@
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>21</v>
+      <c r="B9" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>27</v>
@@ -2156,10 +2194,10 @@
       <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="15" t="s">
         <v>34</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -2168,856 +2206,886 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>19</v>
+      <c r="B10" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="7">
         <v>123456</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="E10" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="45" t="s">
         <v>35</v>
       </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="5">
         <v>7891011</v>
       </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="37"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="46"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="34" t="s">
+      <c r="D12" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="45" t="s">
         <v>35</v>
       </c>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="19" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="37"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="46"/>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="14" t="s">
-        <v>21</v>
+      <c r="B14" s="13" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="38" t="s">
+      <c r="F14" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="45" t="s">
         <v>35</v>
       </c>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="35"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="37"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="46"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>19</v>
+      <c r="B16" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="36" t="s">
+      <c r="E16" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="F16" s="38" t="s">
+      <c r="F16" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="43" t="s">
+      <c r="G16" s="47" t="s">
         <v>53</v>
       </c>
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="1:9" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="48"/>
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="46"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="43" t="s">
-        <v>48</v>
-      </c>
-      <c r="F18" s="38" t="s">
+      <c r="C20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="46"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="193.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="143.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="29">
+        <v>123</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="29">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="29">
+        <v>123</v>
+      </c>
+      <c r="E27" s="16">
+        <v>12332</v>
+      </c>
+      <c r="F27" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I18" s="1"/>
-    </row>
-    <row r="19" spans="1:9" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="37"/>
-      <c r="I19" s="1"/>
-    </row>
-    <row r="20" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="G27" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="29">
+        <v>0</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="29">
+        <v>0</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1246</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="29">
+        <v>12</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="29">
+        <v>0</v>
+      </c>
+      <c r="E31" s="16">
+        <v>122</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="38" t="s">
+      <c r="D32" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I20" s="1"/>
-    </row>
-    <row r="21" spans="1:9" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="37"/>
-      <c r="I21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="3"/>
-      <c r="I22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="10"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="45">
-        <v>123</v>
-      </c>
-      <c r="E25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="45">
+      <c r="G32" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="48" t="s">
-        <v>63</v>
-      </c>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="45">
-        <v>123</v>
-      </c>
-      <c r="E27" s="17">
-        <v>12332</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G27" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="45">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G28" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="45">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>1246</v>
-      </c>
-      <c r="F29" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G29" s="48" t="s">
-        <v>66</v>
-      </c>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="45">
-        <v>12</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G30" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="45">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <v>122</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="C32" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="45" t="s">
-        <v>61</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G32" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G33" s="47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>0</v>
-      </c>
     </row>
     <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="16"/>
+      <c r="F35" s="15"/>
       <c r="G35" s="3"/>
       <c r="I35" s="2"/>
     </row>
     <row r="36" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="16"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="3"/>
       <c r="I36" s="2"/>
     </row>
     <row r="37" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="16"/>
+      <c r="F37" s="15"/>
       <c r="G37" s="3"/>
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="16"/>
+      <c r="F38" s="15"/>
       <c r="G38" s="3"/>
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="16"/>
+      <c r="F39" s="15"/>
       <c r="G39" s="3"/>
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="16"/>
+      <c r="F40" s="15"/>
       <c r="G40" s="3"/>
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="16"/>
+      <c r="F41" s="15"/>
       <c r="G41" s="3"/>
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="16"/>
+      <c r="F42" s="15"/>
       <c r="G42" s="3"/>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="3"/>
-      <c r="F43" s="16"/>
+      <c r="F43" s="15"/>
       <c r="G43" s="3"/>
       <c r="I43" s="2"/>
     </row>
     <row r="44" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="16"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="3"/>
       <c r="I44" s="2"/>
     </row>
     <row r="45" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="16"/>
+      <c r="F45" s="15"/>
       <c r="G45" s="3"/>
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="3"/>
-      <c r="F46" s="16"/>
+      <c r="F46" s="15"/>
       <c r="G46" s="3"/>
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" s="9" customFormat="1" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
+      <c r="A47" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="27" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="G47" s="26" t="s">
+      <c r="G47" s="25" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E48" s="25" t="s">
+      <c r="E48" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="F48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="16"/>
+      <c r="F49" s="15"/>
       <c r="G49" s="3"/>
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="15" t="s">
+      <c r="A50" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="16"/>
+      <c r="F50" s="15"/>
       <c r="G50" s="3"/>
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="15" t="s">
+      <c r="A51" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="16"/>
+      <c r="F51" s="15"/>
       <c r="G51" s="3"/>
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="16"/>
+      <c r="F52" s="15"/>
       <c r="G52" s="3"/>
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="3"/>
-      <c r="F53" s="16"/>
+      <c r="F53" s="15"/>
       <c r="G53" s="3"/>
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="15" t="s">
+      <c r="A54" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="16"/>
+      <c r="F54" s="15"/>
       <c r="G54" s="3"/>
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="15" t="s">
+      <c r="A55" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="16"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="3"/>
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="16"/>
+      <c r="F56" s="15"/>
       <c r="G56" s="3"/>
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
       <c r="E57" s="3"/>
-      <c r="F57" s="16"/>
+      <c r="F57" s="15"/>
       <c r="G57" s="3"/>
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="16"/>
+      <c r="F58" s="15"/>
       <c r="G58" s="3"/>
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="15" t="s">
+      <c r="A59" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="16"/>
+      <c r="F59" s="15"/>
       <c r="G59" s="3"/>
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
+      <c r="A60" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="8"/>
       <c r="E60" s="4"/>
-      <c r="F60" s="13"/>
+      <c r="F60" s="12"/>
       <c r="G60" s="4"/>
     </row>
   </sheetData>
@@ -3069,7 +3137,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>10</v>
       </c>
     </row>
